--- a/data2019/chinese2019.xlsx
+++ b/data2019/chinese2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Year 5\COMP 4801 FYP\codes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Year 5\COMP 4801 FYP\codes\data2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A708AC00-3421-4C48-A6F4-5B81E907C37B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B781B21-4AE7-48C3-A559-27D6A2752654}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="0" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{25909279-3FED-49C2-85F2-F1BD41911B2F}"/>
+    <workbookView xWindow="9600" yWindow="135" windowWidth="28800" windowHeight="15435" activeTab="8" xr2:uid="{25909279-3FED-49C2-85F2-F1BD41911B2F}"/>
   </bookViews>
   <sheets>
     <sheet name="fastestlap" sheetId="3" r:id="rId1"/>
@@ -20,6 +20,8 @@
     <sheet name="totallaptimes" sheetId="9" r:id="rId5"/>
     <sheet name="lapdelta" sheetId="10" r:id="rId6"/>
     <sheet name="lapsundercut" sheetId="11" r:id="rId7"/>
+    <sheet name="weather" sheetId="12" r:id="rId8"/>
+    <sheet name="altitude" sheetId="13" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -62,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="115">
   <si>
     <t>Pos.</t>
   </si>
@@ -372,6 +374,42 @@
   <si>
     <t>delta_position</t>
   </si>
+  <si>
+    <t>tyre_before</t>
+  </si>
+  <si>
+    <t>tyre_after</t>
+  </si>
+  <si>
+    <t>Skycondition</t>
+  </si>
+  <si>
+    <t>Breezy and Overcast</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>66.04°F</t>
+  </si>
+  <si>
+    <t>Humidity</t>
+  </si>
+  <si>
+    <t>Wind speed</t>
+  </si>
+  <si>
+    <t>15.44 mph</t>
+  </si>
+  <si>
+    <t>Wind bearing</t>
+  </si>
+  <si>
+    <t>33°</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
 </sst>
 </file>
 
@@ -410,11 +448,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8423,10 +8462,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A18896F0-13FF-4F21-9D1E-CDC6EE342C8B}">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8438,9 +8477,11 @@
     <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>58</v>
       </c>
@@ -8462,8 +8503,14 @@
       <c r="G1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3</v>
       </c>
@@ -8485,8 +8532,14 @@
       <c r="G2">
         <v>23.506</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>4</v>
       </c>
@@ -8508,8 +8561,14 @@
       <c r="G3">
         <v>50.738</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -8531,8 +8590,14 @@
       <c r="G4">
         <v>33.637999999999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8554,8 +8619,14 @@
       <c r="G5">
         <v>22.524000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8577,8 +8648,14 @@
       <c r="G6">
         <v>22.748999999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -8600,8 +8677,14 @@
       <c r="G7">
         <v>22.315999999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -8623,8 +8706,14 @@
       <c r="G8">
         <v>23.888000000000002</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -8646,8 +8735,14 @@
       <c r="G9">
         <v>23.260999999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -8669,8 +8764,14 @@
       <c r="G10">
         <v>23.52</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -8692,8 +8793,14 @@
       <c r="G11">
         <v>22.300999999999998</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -8715,8 +8822,14 @@
       <c r="G12">
         <v>22.722000000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
@@ -8738,8 +8851,14 @@
       <c r="G13">
         <v>22.408000000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <v>3</v>
+      </c>
+      <c r="I13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
@@ -8761,8 +8880,14 @@
       <c r="G14">
         <v>23.733000000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <v>3</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>16</v>
       </c>
@@ -8784,8 +8909,14 @@
       <c r="G15">
         <v>22.920999999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <v>3</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>16</v>
       </c>
@@ -8807,8 +8938,14 @@
       <c r="G16">
         <v>24.227</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>18</v>
       </c>
@@ -8830,8 +8967,14 @@
       <c r="G17">
         <v>23.466000000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>18</v>
       </c>
@@ -8853,8 +8996,14 @@
       <c r="G18">
         <v>23.515000000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>20</v>
       </c>
@@ -8876,8 +9025,14 @@
       <c r="G19">
         <v>23.963999999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <v>4</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>20</v>
       </c>
@@ -8899,8 +9054,14 @@
       <c r="G20">
         <v>23.382999999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>23</v>
       </c>
@@ -8922,8 +9083,14 @@
       <c r="G21">
         <v>23.215</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <v>4</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>26</v>
       </c>
@@ -8945,8 +9112,14 @@
       <c r="G22">
         <v>17.257000000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22">
+        <v>3</v>
+      </c>
+      <c r="I22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>26</v>
       </c>
@@ -8968,8 +9141,14 @@
       <c r="G23">
         <v>26.05</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23">
+        <v>3</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>26</v>
       </c>
@@ -8991,8 +9170,14 @@
       <c r="G24">
         <v>43.206000000000003</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>27</v>
       </c>
@@ -9014,8 +9199,14 @@
       <c r="G25">
         <v>24.106999999999999</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25">
+        <v>4</v>
+      </c>
+      <c r="I25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>33</v>
       </c>
@@ -9037,8 +9228,14 @@
       <c r="G26">
         <v>23.222999999999999</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26">
+        <v>3</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>33</v>
       </c>
@@ -9060,8 +9257,14 @@
       <c r="G27">
         <v>22.364999999999998</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="I27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>44</v>
       </c>
@@ -9083,8 +9286,14 @@
       <c r="G28">
         <v>22.643999999999998</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28">
+        <v>3</v>
+      </c>
+      <c r="I28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>44</v>
       </c>
@@ -9106,8 +9315,14 @@
       <c r="G29">
         <v>23.597000000000001</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29">
+        <v>2</v>
+      </c>
+      <c r="I29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>55</v>
       </c>
@@ -9129,8 +9344,14 @@
       <c r="G30">
         <v>45.878</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30">
+        <v>3</v>
+      </c>
+      <c r="I30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>55</v>
       </c>
@@ -9152,8 +9373,14 @@
       <c r="G31">
         <v>22.532</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31">
+        <v>2</v>
+      </c>
+      <c r="I31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>63</v>
       </c>
@@ -9175,8 +9402,14 @@
       <c r="G32">
         <v>24.332000000000001</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32">
+        <v>3</v>
+      </c>
+      <c r="I32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>63</v>
       </c>
@@ -9198,8 +9431,14 @@
       <c r="G33">
         <v>23.965</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33">
+        <v>2</v>
+      </c>
+      <c r="I33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>77</v>
       </c>
@@ -9221,8 +9460,14 @@
       <c r="G34">
         <v>22.196000000000002</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34">
+        <v>3</v>
+      </c>
+      <c r="I34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>77</v>
       </c>
@@ -9244,8 +9489,14 @@
       <c r="G35">
         <v>24.082999999999998</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35">
+        <v>2</v>
+      </c>
+      <c r="I35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>88</v>
       </c>
@@ -9267,8 +9518,14 @@
       <c r="G36">
         <v>32.627000000000002</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36">
+        <v>3</v>
+      </c>
+      <c r="I36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>99</v>
       </c>
@@ -9290,8 +9547,14 @@
       <c r="G37">
         <v>25.184000000000001</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37">
+        <v>4</v>
+      </c>
+      <c r="I37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>99</v>
       </c>
@@ -9312,6 +9575,12 @@
       </c>
       <c r="G38">
         <v>25.137</v>
+      </c>
+      <c r="H38">
+        <v>3</v>
+      </c>
+      <c r="I38">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -19139,7 +19408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{768D6BC5-0867-474C-AEF4-7D64B659B671}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
@@ -19842,4 +20111,87 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{367FA5FE-5A6F-4E12-80C0-613EB0AD5785}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B7688BB-EF75-4BE5-BC77-5536E616D0A0}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1">
+        <v>7.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>